--- a/수정리스트_20160713.xlsx
+++ b/수정리스트_20160713.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
   </si>
   <si>
     <t>(밴드여러장 사진첨부해보면 내용 확인 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,11 +304,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피드백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인요청중</t>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_alert_pop
+0_0_confirmbox_pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_loading.html
+0_0_loading2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 메뉴 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_bonsa_hyunjang_comunity_register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_img_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 요청중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 요청중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보수정 html 페이지 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_potential_risks_register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_sub_menu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_4_search_my_info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +443,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -431,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +569,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,17 +884,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="24" customWidth="1"/>
     <col min="4" max="4" width="65.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="15" customWidth="1"/>
@@ -834,18 +903,18 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -864,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -912,7 +981,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="24">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -924,13 +993,13 @@
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="10">
+        <v>43</v>
+      </c>
+      <c r="H5" s="28">
         <v>1</v>
       </c>
       <c r="I5" s="10"/>
@@ -944,20 +1013,20 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="14">
+        <v>41</v>
+      </c>
+      <c r="H6" s="29">
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1">
@@ -969,16 +1038,16 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="14">
+        <v>44</v>
+      </c>
+      <c r="H7" s="29">
         <v>1</v>
       </c>
       <c r="I7" s="10"/>
@@ -995,11 +1064,11 @@
         <v>21</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
@@ -1018,13 +1087,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="14">
+        <v>41</v>
+      </c>
+      <c r="H9" s="29">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1038,20 +1107,20 @@
       <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="D10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>72</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="18">
+        <v>59</v>
+      </c>
+      <c r="H10" s="29">
         <v>1</v>
       </c>
       <c r="I10" s="16"/>
@@ -1063,18 +1132,20 @@
       <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="18">
+        <v>41</v>
+      </c>
+      <c r="H11" s="29">
         <v>1</v>
       </c>
       <c r="I11" s="16"/>
@@ -1091,13 +1162,13 @@
         <v>24</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="14">
+        <v>60</v>
+      </c>
+      <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
@@ -1114,15 +1185,15 @@
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
@@ -1148,38 +1219,40 @@
         <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>32</v>
+      <c r="E16" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="16">
         <v>2</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1">
@@ -1212,127 +1285,162 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>47</v>
+      <c r="E19" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="16">
         <v>2</v>
       </c>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="24">
+      <c r="I19" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
+      <c r="E20" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="16">
+        <v>47</v>
+      </c>
+      <c r="H20" s="28">
         <v>1</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>31</v>
+      <c r="E21" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="16">
+        <v>52</v>
+      </c>
+      <c r="H21" s="28">
         <v>1</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="E22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="H22" s="28">
         <v>1</v>
       </c>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="28">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="16">
+        <v>2</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="16">
-        <v>2</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
